--- a/data_analysis/fqfits.xlsx
+++ b/data_analysis/fqfits.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/altoidnerd/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/altoidnerd/Desktop/python-pwscf/data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="900" windowWidth="16040" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1180" yWindow="1500" windowWidth="14600" windowHeight="15620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$A$2:$C$2</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$A$42:$C$42</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet3!$G$2:$I$2</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet3!$A$42:$C$42</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
@@ -58,7 +58,7 @@
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$D$31</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$E$45</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet3!$K$5</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet3!$E$45</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
@@ -591,7 +591,7 @@
         <v>34.820874678515693</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D4:D6" si="1">(C5-B5)^2</f>
+        <f t="shared" ref="D5:D6" si="1">(C5-B5)^2</f>
         <v>9.7676343802570161E-6</v>
       </c>
     </row>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1069,7 @@
         <v>5.3360000000000003</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C5:C38" si="1">$A$2+$B$2*A6+$C$2/A6+$D$2*A6^2</f>
+        <f t="shared" ref="C6:C38" si="1">$A$2+$B$2*A6+$C$2/A6+$D$2*A6^2</f>
         <v>5.3342590947704274</v>
       </c>
       <c r="D6">
@@ -1083,11 +1083,11 @@
         <v>5.3360000000000003</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I39" si="2">$G$2+$H$2*G6+$I$2/G6+$J$2*G6^2</f>
+        <f t="shared" ref="I6:I26" si="2">$G$2+$H$2*G6+$I$2/G6+$J$2*G6^2</f>
         <v>5.3351734338035701</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" ref="J6:J38" si="3">(H6-I6)^2</f>
+        <f t="shared" ref="J6:J26" si="3">(H6-I6)^2</f>
         <v>6.8321167708105235E-7</v>
       </c>
       <c r="K6" s="2"/>
@@ -2121,6 +2121,10 @@
         <f>SUM(D45:D52)</f>
         <v>6.2710295710516404E-4</v>
       </c>
+      <c r="G45">
+        <f>B45*1000</f>
+        <v>5424.6653999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -2137,6 +2141,10 @@
         <f t="shared" ref="D46:D52" si="5">(C46-B46)^2</f>
         <v>6.7405539065321931E-5</v>
       </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G52" si="6">B46*1000</f>
+        <v>5405.5032000000001</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -2153,6 +2161,10 @@
         <f t="shared" si="5"/>
         <v>2.9716762951141644E-5</v>
       </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>5415.06</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -2169,8 +2181,12 @@
         <f t="shared" si="5"/>
         <v>4.1855437284083931E-7</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>5404.99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>248</v>
       </c>
@@ -2185,8 +2201,12 @@
         <f t="shared" si="5"/>
         <v>2.9462163662568202E-5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>5396.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>273</v>
       </c>
@@ -2201,8 +2221,12 @@
         <f t="shared" si="5"/>
         <v>2.1327464862838031E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>5412.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>293</v>
       </c>
@@ -2217,8 +2241,12 @@
         <f t="shared" si="5"/>
         <v>5.4516893535735946E-5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>5402.317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>303</v>
       </c>
@@ -2232,6 +2260,10 @@
       <c r="D52">
         <f t="shared" si="5"/>
         <v>2.2822686448553006E-4</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>5378.33</v>
       </c>
     </row>
   </sheetData>
@@ -2243,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3095,7 +3127,7 @@
         <v>1.270469591862578E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>375</v>
       </c>
@@ -3111,7 +3143,7 @@
         <v>1.4385316377184614E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>385</v>
       </c>
@@ -3127,7 +3159,7 @@
         <v>1.1904955050944907E-6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>395</v>
       </c>
@@ -3143,7 +3175,7 @@
         <v>1.0206949616541399E-6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>405</v>
       </c>
@@ -3159,7 +3191,7 @@
         <v>4.4322933178035904E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>415</v>
       </c>
@@ -3175,7 +3207,7 @@
         <v>4.815319325884299E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>426</v>
       </c>
@@ -3191,7 +3223,7 @@
         <v>3.703975412544675E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3205,21 +3237,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>5.3</v>
+        <v>5.3060099432234891</v>
       </c>
       <c r="B42">
-        <v>-2.9230152333450808E-3</v>
+        <v>-3.3595865945306515E-4</v>
       </c>
       <c r="C42">
-        <v>-1.0001558563269699</v>
+        <v>-1.0136312876580813</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -3230,7 +3262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>123</v>
       </c>
@@ -3239,14 +3271,22 @@
       </c>
       <c r="C45">
         <f>$A$42+$B$42*A45+$C$42/A45+$D$42*A45^2</f>
-        <v>4.9323377778731325</v>
+        <v>5.2564461233330544</v>
       </c>
       <c r="D45">
         <f>(C45-B45)^2</f>
-        <v>0.10068558668015849</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.6218559815422477E-5</v>
+      </c>
+      <c r="E45">
+        <f>SUM(D45:D52)</f>
+        <v>2.8176524841338453E-3</v>
+      </c>
+      <c r="G45">
+        <f>B45*1000</f>
+        <v>5249.6476999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>173</v>
       </c>
@@ -3255,14 +3295,18 @@
       </c>
       <c r="C46">
         <f t="shared" ref="C46:C52" si="4">$A$42+$B$42*A46+$C$42/A46+$D$42*A46^2</f>
-        <v>4.7885371169068671</v>
+        <v>5.2420299547470215</v>
       </c>
       <c r="D46">
         <f t="shared" ref="D46:D52" si="5">(C46-B46)^2</f>
-        <v>0.19953631858158755</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.6212188742553586E-5</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G52" si="6">B46*1000</f>
+        <v>5235.232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>198</v>
       </c>
@@ -3271,14 +3315,18 @@
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
-        <v>4.7161916915940019</v>
+        <v>5.2343707787141156</v>
       </c>
       <c r="D47">
         <f t="shared" si="5"/>
-        <v>0.27385158564674683</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.6308910999565518E-5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>5239.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>223</v>
       </c>
@@ -3287,14 +3335,18 @@
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
-        <v>4.6436825991240154</v>
+        <v>5.2265457303822354</v>
       </c>
       <c r="D48">
         <f t="shared" si="5"/>
-        <v>0.35172894198179561</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.0412711843203041E-4</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>5236.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>248</v>
       </c>
@@ -3303,14 +3355,18 @@
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
-        <v>4.5710593356129721</v>
+        <v>5.2186049727450241</v>
       </c>
       <c r="D49">
         <f t="shared" si="5"/>
-        <v>0.45769693308625842</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.4026861986991703E-4</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>5247.5923599999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>273</v>
       </c>
@@ -3319,14 +3375,18 @@
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
-        <v>4.4983532667314918</v>
+        <v>5.2105802940731758</v>
       </c>
       <c r="D50">
         <f t="shared" si="5"/>
-        <v>0.47362162567377919</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.7721475530256425E-4</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>5186.5550000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>298</v>
       </c>
@@ -3335,14 +3395,18 @@
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
-        <v>4.4255852327573706</v>
+        <v>5.2024928154324552</v>
       </c>
       <c r="D51">
         <f t="shared" si="5"/>
-        <v>0.56129130087520318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7.6805556582419275E-4</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>5174.7790000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>303</v>
       </c>
@@ -3351,11 +3415,15 @@
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
-        <v>4.4110255398861202</v>
+        <v>5.2008691516281607</v>
       </c>
       <c r="D52">
         <f t="shared" si="5"/>
-        <v>0.65621901078087308</v>
+        <v>4.0924676514759924E-4</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>5221.0990000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data_analysis/fqfits.xlsx
+++ b/data_analysis/fqfits.xlsx
@@ -9,92 +9,119 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="14600" windowHeight="15620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3480" yWindow="1020" windowWidth="16700" windowHeight="16460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$A$2:$C$2</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$A$42:$C$42</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet3!$A$42:$C$42</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$A$22:$B$22</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet2!$A$42:$B$42</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Sheet3!$A$42:$B$42</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet4!$A$22:$D$22</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$D$31</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$E$45</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet3!$E$45</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet2!$E$45</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Sheet3!$E$45</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet4!$D$31</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -109,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t>expt T</t>
   </si>
@@ -200,8 +227,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -230,7 +265,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -241,6 +276,10 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -251,6 +290,10 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,7 +572,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,7 +607,7 @@
       <c r="C2">
         <v>-3.1041262051456782</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -793,13 +836,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>34.626667204756004</v>
+        <v>34.654475526234442</v>
       </c>
       <c r="B22">
-        <v>-2.9230152333450808E-3</v>
+        <v>-2.9993274363951188E-3</v>
       </c>
       <c r="C22">
-        <v>-1.0001558563269699</v>
+        <v>-3.1041262000000001</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -825,11 +868,11 @@
       </c>
       <c r="C25">
         <f>$A$22+$B$22*A25+$C$22/A25+$D$22*A25^2</f>
-        <v>34.324364122858228</v>
+        <v>34.323501520594931</v>
       </c>
       <c r="D25">
         <f>(C25-B25)^2</f>
-        <v>5.7101294437483633E-4</v>
+        <v>6.1298230245139247E-4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -841,11 +884,11 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C30" si="3">$A$22+$B$22*A26+$C$22/A26+$D$22*A26^2</f>
-        <v>34.03706337880535</v>
+        <v>34.039089407955416</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26:D30" si="4">(C26-B26)^2</f>
-        <v>1.2740172905420784E-3</v>
+        <v>1.4227537365069788E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -857,11 +900,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>33.96454364011413</v>
+        <v>33.965830736601092</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>2.5244233719184548E-3</v>
+        <v>2.6554168146513718E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -873,11 +916,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>33.891912772994431</v>
+        <v>33.892227162335665</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>2.2059204125924404E-3</v>
+        <v>2.1764872621345592E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -889,11 +932,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>33.825020471487498</v>
+        <v>33.824288710457552</v>
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
-        <v>1.1362554810891323E-4</v>
+        <v>1.29761477439975E-4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -905,17 +948,17 @@
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
-        <v>33.766810240169768</v>
+        <v>33.765078299998656</v>
       </c>
       <c r="D30">
         <f t="shared" si="4"/>
-        <v>2.2276132855056778E-5</v>
+        <v>4.1624432907321922E-5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31">
         <f>SUM(D25:D30)</f>
-        <v>6.7112757003917793E-3</v>
+        <v>7.0390260260915979E-3</v>
       </c>
     </row>
   </sheetData>
@@ -926,18 +969,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:G52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -950,51 +993,25 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5.3730449278645276</v>
+        <v>34.850650161792558</v>
       </c>
       <c r="B2">
-        <v>-2.2776489854550505E-4</v>
+        <v>-5.6730433519195907E-4</v>
       </c>
       <c r="C2">
-        <v>-1.6501517607302949</v>
+        <v>-0.25647787872862055</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5.3598926150177553</v>
-      </c>
-      <c r="H2" s="2">
-        <v>-1.870262045966442E-4</v>
-      </c>
-      <c r="I2" s="2">
-        <v>-0.76326851731109968</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-4.6246165696504536E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1004,1266 +1021,344 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>34.823999999999998</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C16" si="0">$A$2+$B$2*A5+$C$2/A5+$D$2*A5^2</f>
+        <v>34.824630334524429</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">(C5-B5)^2</f>
+        <v>3.9732161268903619E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>34.774999999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>34.772462295447333</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6.4399443966183523E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>34.744999999999997</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>34.745108783789568</v>
+      </c>
+      <c r="D7">
+        <f>(C7-B7)^2</f>
+        <v>1.1833912873432147E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <v>34.713000000000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>34.713841847310484</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D16" si="2">(C8-B8)^2</f>
+        <v>7.0870689416667809E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>34.677</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>34.678753085252474</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>3.0733079024429042E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>160</v>
+      </c>
+      <c r="B10">
+        <v>34.64</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>34.639888297236737</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>1.247750732061455E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>180</v>
+      </c>
+      <c r="B11">
+        <v>34.597000000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>34.597272927497279</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>7.4489418770388715E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>200</v>
+      </c>
+      <c r="B12">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>34.550922242574501</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>8.5053136622718388E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>220</v>
+      </c>
+      <c r="B13">
+        <v>34.502000000000002</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>34.500845957539575</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1.3318140004700604E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>240</v>
+      </c>
+      <c r="B14">
+        <v>34.447000000000003</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>34.447050549106585</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>2.5552121762696732E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>260</v>
+      </c>
+      <c r="B15">
+        <v>34.392000000000003</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>34.389540501154556</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>6.049134570753734E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>280</v>
+      </c>
+      <c r="B16">
+        <v>34.326999999999998</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>34.328319016454174</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>1.7398044063855128E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f>SUM(D5:D16)</f>
+        <v>2.069192120089417E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>34.46793637542082</v>
+      </c>
+      <c r="B22">
+        <v>-1.1204253627102188E-3</v>
+      </c>
+      <c r="C22">
+        <v>-0.255</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-4.5980338259094178E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>77</v>
-      </c>
-      <c r="B5">
-        <v>5.3360000000000003</v>
-      </c>
-      <c r="C5">
-        <f>$A$2+$B$2*A5+$C$2/A5+$D$2*A5^2</f>
-        <v>5.3340764883293774</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D38" si="0">(C5-B5)^2</f>
-        <v>3.6998971470224204E-6</v>
-      </c>
-      <c r="E5">
-        <f>SUM(D5:D38)</f>
-        <v>1.0284450316648559E-4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5.3360000000000003</v>
-      </c>
-      <c r="I5" s="2">
-        <f>$G$2+$H$2*G5+$I$2/G5+$J$2*G5^2</f>
-        <v>5.3355790191169161</v>
-      </c>
-      <c r="J5" s="3">
-        <f>(H5-I5)^2</f>
-        <v>1.7722490392233316E-7</v>
-      </c>
-      <c r="K5" s="2">
-        <f>SUM(J5:J26)</f>
-        <v>9.8159401988585058E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>83</v>
-      </c>
-      <c r="B6">
-        <v>5.3360000000000003</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C38" si="1">$A$2+$B$2*A6+$C$2/A6+$D$2*A6^2</f>
-        <v>5.3342590947704274</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>3.0307510183543798E-6</v>
-      </c>
-      <c r="G6" s="2">
-        <v>83</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5.3360000000000003</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" ref="I6:I26" si="2">$G$2+$H$2*G6+$I$2/G6+$J$2*G6^2</f>
-        <v>5.3351734338035701</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" ref="J6:J26" si="3">(H6-I6)^2</f>
-        <v>6.8321167708105235E-7</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>93</v>
-      </c>
-      <c r="B7">
-        <v>5.3339999999999996</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>5.3341192249801148</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1.4214595883466156E-8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>93</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5.3339999999999996</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3342919896320833</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="3"/>
-        <v>8.5257945244348617E-8</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>103</v>
-      </c>
-      <c r="B8">
-        <v>5.3330000000000002</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>5.3335642524334634</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>3.1838080866920229E-7</v>
-      </c>
-      <c r="G8" s="2">
-        <v>103</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5.3330000000000002</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3332185419898241</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="3"/>
-        <v>4.7760601316216519E-8</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>113</v>
-      </c>
-      <c r="B9">
-        <v>5.3310000000000004</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>5.3327043814020687</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2.9049159637163048E-6</v>
-      </c>
-      <c r="G9" s="2">
-        <v>113</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5.3310000000000004</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3320040652495635</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0081470253801919E-6</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>123</v>
-      </c>
-      <c r="B10">
-        <v>5.33</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>5.3316139773700133</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>2.6049229509148259E-6</v>
-      </c>
-      <c r="G10" s="2">
-        <v>123</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5.33</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3306829567522778</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="3"/>
-        <v>4.6642992548169951E-7</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>135</v>
-      </c>
-      <c r="B11">
-        <v>5.3280000000000003</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>5.3300733201851038</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>4.2986565899577495E-6</v>
-      </c>
-      <c r="G11" s="2">
-        <v>135</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5.3280000000000003</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3289902365282371</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="3"/>
-        <v>9.8056838185451199E-7</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>143</v>
-      </c>
-      <c r="B12">
-        <v>5.3280000000000003</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>5.3289350245702103</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>8.7427094689638934E-7</v>
-      </c>
-      <c r="G12" s="2">
-        <v>143</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5.3280000000000003</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3278103256813365</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="3"/>
-        <v>3.5976347160573179E-8</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>153</v>
-      </c>
-      <c r="B13">
-        <v>5.3259999999999996</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>5.3274115927613765</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1.9925941239717269E-6</v>
-      </c>
-      <c r="G13" s="2">
-        <v>153</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5.3259999999999996</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="2"/>
-        <v>5.326288922594788</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="3"/>
-        <v>8.3476265779267751E-8</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>163</v>
-      </c>
-      <c r="B14">
-        <v>5.3250000000000002</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>5.3257956189676818</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>6.3300954173482237E-7</v>
-      </c>
-      <c r="G14" s="2">
-        <v>163</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5.3250000000000002</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3247247147279433</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="3"/>
-        <v>7.57819810114365E-8</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>173</v>
-      </c>
-      <c r="B15">
-        <v>5.3239999999999998</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>5.3241031509321646</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1.0640114806452852E-8</v>
-      </c>
-      <c r="G15" s="2">
-        <v>173</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5.3239999999999998</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3231251248750731</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="3"/>
-        <v>7.6540648421566351E-7</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>183</v>
-      </c>
-      <c r="B16">
-        <v>5.3220000000000001</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>5.3223467286944688</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1.2022078756798514E-7</v>
-      </c>
-      <c r="G16" s="2">
-        <v>183</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5.3220000000000001</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3214959533617545</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="3"/>
-        <v>2.5406301352663809E-7</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>193</v>
-      </c>
-      <c r="B17">
-        <v>5.32</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>5.3205362933222897</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>2.8761052753224345E-7</v>
-      </c>
-      <c r="G17" s="2">
-        <v>193</v>
-      </c>
-      <c r="H17" s="2">
-        <v>5.32</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3198417983735506</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="3"/>
-        <v>2.5027754611311075E-8</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>203</v>
-      </c>
-      <c r="B18">
-        <v>5.3179999999999996</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>5.318679827052252</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>4.6216482097409945E-7</v>
-      </c>
-      <c r="G18" s="2">
-        <v>203</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5.3179999999999996</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3181663520496061</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="3"/>
-        <v>2.7673004408272233E-8</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>213</v>
-      </c>
-      <c r="B19">
-        <v>5.3170000000000002</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>5.3167838131094038</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>4.673677166570783E-8</v>
-      </c>
-      <c r="G19" s="2">
-        <v>213</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5.3170000000000002</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3164726131696032</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="3"/>
-        <v>2.7813686887618559E-7</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>223</v>
-      </c>
-      <c r="B20">
-        <v>5.3150000000000004</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>5.3148535718084755</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>2.1441215273247901E-8</v>
-      </c>
-      <c r="G20" s="2">
-        <v>223</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5.3150000000000004</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3147630426155237</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="3"/>
-        <v>5.614880205804352E-8</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>233</v>
-      </c>
-      <c r="B21">
-        <v>5.3129999999999997</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>5.3128935101054413</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1.1340097643062287E-8</v>
-      </c>
-      <c r="G21" s="2">
-        <v>233</v>
-      </c>
-      <c r="H21" s="2">
-        <v>5.3129999999999997</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3130396788003385</v>
-      </c>
-      <c r="J21" s="3">
-        <f t="shared" si="3"/>
-        <v>1.5744071963205754E-9</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>243</v>
-      </c>
-      <c r="B22">
-        <v>5.3109999999999999</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>5.3109073095314256</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>8.5915229645227135E-9</v>
-      </c>
-      <c r="G22" s="2">
-        <v>243</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5.3109999999999999</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3113042245957871</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="3"/>
-        <v>9.2552604681861762E-8</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>253</v>
-      </c>
-      <c r="B23">
-        <v>5.3109999999999999</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>5.308898069557296</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>4.4181115859654262E-6</v>
-      </c>
-      <c r="G23" s="2">
-        <v>253</v>
-      </c>
-      <c r="H23" s="2">
-        <v>5.3109999999999999</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3095581136448793</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="3"/>
-        <v>2.0790362610831376E-6</v>
-      </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>263</v>
-      </c>
-      <c r="B24">
-        <v>5.3079999999999998</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>5.3068684182515078</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1.2804772535202995E-6</v>
-      </c>
-      <c r="G24" s="2">
-        <v>263</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5.3079999999999998</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3078025615460582</v>
-      </c>
-      <c r="J24" s="3">
-        <f t="shared" si="3"/>
-        <v>3.8981943094849601E-8</v>
-      </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>100</v>
+      </c>
+      <c r="B25">
+        <v>34.348260000000003</v>
+      </c>
+      <c r="C25">
+        <f>$A$22+$B$22*A25+$C$22/A25+$D$22*A25^2</f>
+        <v>34.307363500890709</v>
+      </c>
+      <c r="D25">
+        <f>(C25-B25)^2</f>
+        <v>1.6725236393965162E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>200</v>
+      </c>
+      <c r="B26">
+        <v>34.001370000000001</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C30" si="3">$A$22+$B$22*A26+$C$22/A26+$D$22*A26^2</f>
+        <v>34.058654949842399</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D30" si="4">(C26-B26)^2</f>
+        <v>3.2815654784460243E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>225</v>
+      </c>
+      <c r="B27">
+        <v>33.914299999999997</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>33.98193187304102</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>4.574070251037057E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>250</v>
+      </c>
+      <c r="B28">
+        <v>33.938879999999997</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>33.89943292062393</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>1.5560720713017704E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>273</v>
       </c>
-      <c r="B25">
-        <v>5.306</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>5.3048205986175381</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1.3909876209532186E-6</v>
-      </c>
-      <c r="G25" s="2">
-        <v>273</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5.306</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3060386057881059</v>
-      </c>
-      <c r="J25" s="3">
-        <f t="shared" si="3"/>
-        <v>1.4904068752763543E-9</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>298</v>
-      </c>
-      <c r="B26">
-        <v>5.3</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>5.2996335660820941</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1.342738161917178E-7</v>
-      </c>
-      <c r="G26" s="2">
-        <v>298</v>
-      </c>
-      <c r="H26" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3015975022985895</v>
-      </c>
-      <c r="J26" s="3">
-        <f t="shared" si="3"/>
-        <v>2.5520135939993154E-6</v>
-      </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>315</v>
-      </c>
-      <c r="B27">
-        <v>5.2969999999999997</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>5.2960604078045019</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>8.8283349384032666E-7</v>
-      </c>
-      <c r="G27" s="2">
-        <v>315</v>
-      </c>
-      <c r="H27" s="2">
-        <v>5.2969999999999997</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>324</v>
-      </c>
-      <c r="B28">
-        <v>5.2960000000000003</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>5.2941560397458751</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>3.4001894187932625E-6</v>
-      </c>
-      <c r="G28" s="2">
-        <v>324</v>
-      </c>
-      <c r="H28" s="2">
-        <v>5.2960000000000003</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>334</v>
-      </c>
       <c r="B29">
-        <v>5.2949999999999999</v>
+        <v>33.835680000000004</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
-        <v>5.2920308776164058</v>
+        <f t="shared" si="3"/>
+        <v>33.81843932245566</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>8.8156877287597891E-6</v>
-      </c>
-      <c r="G29" s="2">
-        <v>334</v>
-      </c>
-      <c r="H29" s="2">
-        <v>5.2949999999999999</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>2.9724096218802819E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="B30">
-        <v>5.2930000000000001</v>
+        <v>33.771529999999998</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
-        <v>5.2898968499720533</v>
+        <f t="shared" si="3"/>
+        <v>33.744044831058993</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>9.629540095946291E-6</v>
-      </c>
-      <c r="G30" s="2">
-        <v>344</v>
-      </c>
-      <c r="H30" s="2">
-        <v>5.2930000000000001</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>354</v>
-      </c>
-      <c r="B31">
-        <v>5.29</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>5.2877547081276379</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>7.5543451171561945E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>5.0413355920953478E-6</v>
-      </c>
-      <c r="G31" s="2">
-        <v>354</v>
-      </c>
-      <c r="H31" s="2">
-        <v>5.29</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>364</v>
-      </c>
-      <c r="B32">
-        <v>5.2880000000000003</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>5.2856051208359132</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>5.7354462105784963E-6</v>
-      </c>
-      <c r="G32" s="2">
-        <v>364</v>
-      </c>
-      <c r="H32" s="2">
-        <v>5.2880000000000003</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>375</v>
-      </c>
-      <c r="B33">
-        <v>5.2850000000000001</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>5.2832326862146832</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>3.1233980157712033E-6</v>
-      </c>
-      <c r="G33" s="2">
-        <v>375</v>
-      </c>
-      <c r="H33" s="2">
-        <v>5.2850000000000001</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>385</v>
-      </c>
-      <c r="B34">
-        <v>5.2789999999999999</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>5.2810693334550791</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>4.2821409483100318E-6</v>
-      </c>
-      <c r="G34" s="2">
-        <v>385</v>
-      </c>
-      <c r="H34" s="2">
-        <v>5.2789999999999999</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>395</v>
-      </c>
-      <c r="B35">
-        <v>5.2759999999999998</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>5.278900193544799</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>8.4111225972949559E-6</v>
-      </c>
-      <c r="G35" s="2">
-        <v>395</v>
-      </c>
-      <c r="H35" s="2">
-        <v>5.2759999999999998</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>405</v>
-      </c>
-      <c r="B36">
-        <v>5.2729999999999997</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>5.2767256951616712</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>1.388080443770271E-5</v>
-      </c>
-      <c r="G36" s="2">
-        <v>405</v>
-      </c>
-      <c r="H36" s="2">
-        <v>5.2729999999999997</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>415</v>
-      </c>
-      <c r="B37">
-        <v>5.2720000000000002</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>5.2745462256651781</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>6.4832651380102057E-6</v>
-      </c>
-      <c r="G37" s="2">
-        <v>415</v>
-      </c>
-      <c r="H37" s="2">
-        <v>5.2720000000000002</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>426</v>
-      </c>
-      <c r="B38">
-        <v>5.27</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>5.2721434854016769</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>4.5945296672037088E-6</v>
-      </c>
-      <c r="G38" s="2">
-        <v>426</v>
-      </c>
-      <c r="H38" s="2">
-        <v>5.27</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I39" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>5.4333234236673693</v>
-      </c>
-      <c r="B42">
-        <v>-1.4048123028270176E-4</v>
-      </c>
-      <c r="C42">
-        <v>0.81190920848927928</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>123</v>
-      </c>
-      <c r="B45">
-        <v>5.4246654000000003</v>
-      </c>
-      <c r="C45">
-        <f>$A$42+$B$42*A45+$C$42/A45+$D$42*A45^2</f>
-        <v>5.4226451202164938</v>
-      </c>
-      <c r="D45">
-        <f>(C45-B45)^2</f>
-        <v>4.0815304036450529E-6</v>
-      </c>
-      <c r="E45">
-        <f>SUM(D45:D52)</f>
-        <v>6.2710295710516404E-4</v>
-      </c>
-      <c r="G45">
-        <f>B45*1000</f>
-        <v>5424.6653999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>173</v>
-      </c>
-      <c r="B46">
-        <v>5.4055032000000001</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ref="C46:C52" si="4">$A$42+$B$42*A46+$C$42/A46+$D$42*A46^2</f>
-        <v>5.4137132876405385</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ref="D46:D52" si="5">(C46-B46)^2</f>
-        <v>6.7405539065321931E-5</v>
-      </c>
-      <c r="G46">
-        <f t="shared" ref="G46:G52" si="6">B46*1000</f>
-        <v>5405.5032000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>198</v>
-      </c>
-      <c r="B47">
-        <v>5.4150600000000004</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="4"/>
-        <v>5.4096086916294217</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="5"/>
-        <v>2.9716762951141644E-5</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="6"/>
-        <v>5415.06</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>223</v>
-      </c>
-      <c r="B48">
-        <v>5.4049899999999997</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="4"/>
-        <v>5.4056369577828889</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="5"/>
-        <v>4.1855437284083931E-7</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="6"/>
-        <v>5404.99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>248</v>
-      </c>
-      <c r="B49">
-        <v>5.3963299999999998</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="4"/>
-        <v>5.4017579060108449</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="5"/>
-        <v>2.9462163662568202E-5</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="6"/>
-        <v>5396.33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>273</v>
-      </c>
-      <c r="B50">
-        <v>5.4125500000000004</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="4"/>
-        <v>5.3979460742049143</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="5"/>
-        <v>2.1327464862838031E-4</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="6"/>
-        <v>5412.55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>293</v>
-      </c>
-      <c r="B51">
-        <v>5.402317</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="4"/>
-        <v>5.3949334443839208</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="5"/>
-        <v>5.4516893535735946E-5</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="6"/>
-        <v>5402.317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>303</v>
-      </c>
-      <c r="B52">
-        <v>5.3783300000000001</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="4"/>
-        <v>5.3934371792365594</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="5"/>
-        <v>2.2822686448553006E-4</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="6"/>
-        <v>5378.33</v>
+        <f>SUM(D25:D30)</f>
+        <v>1.2136906914085015E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2273,13 +1368,1368 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5.3730449278645276</v>
+      </c>
+      <c r="B2">
+        <v>-2.2776489854550505E-4</v>
+      </c>
+      <c r="C2">
+        <v>-1.6501517607302949</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5.3598926150177553</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-1.870262045966442E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-0.76326851731109968</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>5.3360000000000003</v>
+      </c>
+      <c r="C5">
+        <f>$A$2+$B$2*A5+$C$2/A5+$D$2*A5^2</f>
+        <v>5.3340764883293774</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D38" si="0">(C5-B5)^2</f>
+        <v>3.6998971470224204E-6</v>
+      </c>
+      <c r="E5">
+        <f>SUM(D5:D38)</f>
+        <v>1.0284450316648559E-4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5.3360000000000003</v>
+      </c>
+      <c r="I5" s="2">
+        <f>$G$2+$H$2*G5+$I$2/G5+$J$2*G5^2</f>
+        <v>5.3355790191169161</v>
+      </c>
+      <c r="J5" s="3">
+        <f>(H5-I5)^2</f>
+        <v>1.7722490392233316E-7</v>
+      </c>
+      <c r="K5" s="2">
+        <f>SUM(J5:J26)</f>
+        <v>9.8159401988585058E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>5.3360000000000003</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C38" si="1">$A$2+$B$2*A6+$C$2/A6+$D$2*A6^2</f>
+        <v>5.3342590947704274</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.0307510183543798E-6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5.3360000000000003</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I26" si="2">$G$2+$H$2*G6+$I$2/G6+$J$2*G6^2</f>
+        <v>5.3351734338035701</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" ref="J6:J26" si="3">(H6-I6)^2</f>
+        <v>6.8321167708105235E-7</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>93</v>
+      </c>
+      <c r="B7">
+        <v>5.3339999999999996</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>5.3341192249801148</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.4214595883466156E-8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>93</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5.3339999999999996</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3342919896320833</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5257945244348617E-8</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>5.3335642524334634</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3.1838080866920229E-7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>103</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3332185419898241</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="3"/>
+        <v>4.7760601316216519E-8</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>5.3310000000000004</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>5.3327043814020687</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.9049159637163048E-6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>113</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5.3310000000000004</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3320040652495635</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0081470253801919E-6</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>123</v>
+      </c>
+      <c r="B10">
+        <v>5.33</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>5.3316139773700133</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.6049229509148259E-6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>123</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3306829567522778</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="3"/>
+        <v>4.6642992548169951E-7</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>135</v>
+      </c>
+      <c r="B11">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>5.3300733201851038</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>4.2986565899577495E-6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>135</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3289902365282371</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="3"/>
+        <v>9.8056838185451199E-7</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>143</v>
+      </c>
+      <c r="B12">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>5.3289350245702103</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>8.7427094689638934E-7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>143</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3278103256813365</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5976347160573179E-8</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <v>5.3259999999999996</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>5.3274115927613765</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.9925941239717269E-6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>153</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5.3259999999999996</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>5.326288922594788</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="3"/>
+        <v>8.3476265779267751E-8</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>163</v>
+      </c>
+      <c r="B14">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>5.3257956189676818</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>6.3300954173482237E-7</v>
+      </c>
+      <c r="G14" s="2">
+        <v>163</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3247247147279433</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="3"/>
+        <v>7.57819810114365E-8</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>173</v>
+      </c>
+      <c r="B15">
+        <v>5.3239999999999998</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>5.3241031509321646</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.0640114806452852E-8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>173</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5.3239999999999998</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3231251248750731</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6540648421566351E-7</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>183</v>
+      </c>
+      <c r="B16">
+        <v>5.3220000000000001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>5.3223467286944688</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.2022078756798514E-7</v>
+      </c>
+      <c r="G16" s="2">
+        <v>183</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5.3220000000000001</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3214959533617545</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5406301352663809E-7</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>193</v>
+      </c>
+      <c r="B17">
+        <v>5.32</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>5.3205362933222897</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2.8761052753224345E-7</v>
+      </c>
+      <c r="G17" s="2">
+        <v>193</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5.32</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3198417983735506</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5027754611311075E-8</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>203</v>
+      </c>
+      <c r="B18">
+        <v>5.3179999999999996</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>5.318679827052252</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4.6216482097409945E-7</v>
+      </c>
+      <c r="G18" s="2">
+        <v>203</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5.3179999999999996</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3181663520496061</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="3"/>
+        <v>2.7673004408272233E-8</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>213</v>
+      </c>
+      <c r="B19">
+        <v>5.3170000000000002</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>5.3167838131094038</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4.673677166570783E-8</v>
+      </c>
+      <c r="G19" s="2">
+        <v>213</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5.3170000000000002</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3164726131696032</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="3"/>
+        <v>2.7813686887618559E-7</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>223</v>
+      </c>
+      <c r="B20">
+        <v>5.3150000000000004</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>5.3148535718084755</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.1441215273247901E-8</v>
+      </c>
+      <c r="G20" s="2">
+        <v>223</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5.3150000000000004</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3147630426155237</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="3"/>
+        <v>5.614880205804352E-8</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>233</v>
+      </c>
+      <c r="B21">
+        <v>5.3129999999999997</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>5.3128935101054413</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.1340097643062287E-8</v>
+      </c>
+      <c r="G21" s="2">
+        <v>233</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5.3129999999999997</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3130396788003385</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5744071963205754E-9</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>243</v>
+      </c>
+      <c r="B22">
+        <v>5.3109999999999999</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>5.3109073095314256</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>8.5915229645227135E-9</v>
+      </c>
+      <c r="G22" s="2">
+        <v>243</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5.3109999999999999</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3113042245957871</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="3"/>
+        <v>9.2552604681861762E-8</v>
+      </c>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>253</v>
+      </c>
+      <c r="B23">
+        <v>5.3109999999999999</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>5.308898069557296</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>4.4181115859654262E-6</v>
+      </c>
+      <c r="G23" s="2">
+        <v>253</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5.3109999999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3095581136448793</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0790362610831376E-6</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>263</v>
+      </c>
+      <c r="B24">
+        <v>5.3079999999999998</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>5.3068684182515078</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.2804772535202995E-6</v>
+      </c>
+      <c r="G24" s="2">
+        <v>263</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5.3079999999999998</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3078025615460582</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="3"/>
+        <v>3.8981943094849601E-8</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>273</v>
+      </c>
+      <c r="B25">
+        <v>5.306</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>5.3048205986175381</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.3909876209532186E-6</v>
+      </c>
+      <c r="G25" s="2">
+        <v>273</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5.306</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3060386057881059</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4904068752763543E-9</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>298</v>
+      </c>
+      <c r="B26">
+        <v>5.3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>5.2996335660820941</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.342738161917178E-7</v>
+      </c>
+      <c r="G26" s="2">
+        <v>298</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3015975022985895</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5520135939993154E-6</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>315</v>
+      </c>
+      <c r="B27">
+        <v>5.2969999999999997</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>5.2960604078045019</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>8.8283349384032666E-7</v>
+      </c>
+      <c r="G27" s="2">
+        <v>315</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5.2969999999999997</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>324</v>
+      </c>
+      <c r="B28">
+        <v>5.2960000000000003</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>5.2941560397458751</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>3.4001894187932625E-6</v>
+      </c>
+      <c r="G28" s="2">
+        <v>324</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5.2960000000000003</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>334</v>
+      </c>
+      <c r="B29">
+        <v>5.2949999999999999</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>5.2920308776164058</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>8.8156877287597891E-6</v>
+      </c>
+      <c r="G29" s="2">
+        <v>334</v>
+      </c>
+      <c r="H29" s="2">
+        <v>5.2949999999999999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>344</v>
+      </c>
+      <c r="B30">
+        <v>5.2930000000000001</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>5.2898968499720533</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>9.629540095946291E-6</v>
+      </c>
+      <c r="G30" s="2">
+        <v>344</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5.2930000000000001</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>354</v>
+      </c>
+      <c r="B31">
+        <v>5.29</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>5.2877547081276379</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>5.0413355920953478E-6</v>
+      </c>
+      <c r="G31" s="2">
+        <v>354</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5.29</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>364</v>
+      </c>
+      <c r="B32">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>5.2856051208359132</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>5.7354462105784963E-6</v>
+      </c>
+      <c r="G32" s="2">
+        <v>364</v>
+      </c>
+      <c r="H32" s="2">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>375</v>
+      </c>
+      <c r="B33">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>5.2832326862146832</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>3.1233980157712033E-6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>375</v>
+      </c>
+      <c r="H33" s="2">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>385</v>
+      </c>
+      <c r="B34">
+        <v>5.2789999999999999</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>5.2810693334550791</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>4.2821409483100318E-6</v>
+      </c>
+      <c r="G34" s="2">
+        <v>385</v>
+      </c>
+      <c r="H34" s="2">
+        <v>5.2789999999999999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>395</v>
+      </c>
+      <c r="B35">
+        <v>5.2759999999999998</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>5.278900193544799</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>8.4111225972949559E-6</v>
+      </c>
+      <c r="G35" s="2">
+        <v>395</v>
+      </c>
+      <c r="H35" s="2">
+        <v>5.2759999999999998</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>405</v>
+      </c>
+      <c r="B36">
+        <v>5.2729999999999997</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>5.2767256951616712</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1.388080443770271E-5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>405</v>
+      </c>
+      <c r="H36" s="2">
+        <v>5.2729999999999997</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>415</v>
+      </c>
+      <c r="B37">
+        <v>5.2720000000000002</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>5.2745462256651781</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>6.4832651380102057E-6</v>
+      </c>
+      <c r="G37" s="2">
+        <v>415</v>
+      </c>
+      <c r="H37" s="2">
+        <v>5.2720000000000002</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>426</v>
+      </c>
+      <c r="B38">
+        <v>5.27</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>5.2721434854016769</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>4.5945296672037088E-6</v>
+      </c>
+      <c r="G38" s="2">
+        <v>426</v>
+      </c>
+      <c r="H38" s="2">
+        <v>5.27</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5.4497051447742244</v>
+      </c>
+      <c r="B42">
+        <v>-1.7994961361553761E-4</v>
+      </c>
+      <c r="C42">
+        <v>-0.73619999999999997</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>123</v>
+      </c>
+      <c r="B45">
+        <v>5.4246654000000003</v>
+      </c>
+      <c r="C45">
+        <f>$A$42+$B$42*A45+$C$42/A45+$D$42*A45^2</f>
+        <v>5.4215859764458552</v>
+      </c>
+      <c r="D45">
+        <f>(C45-B45)^2</f>
+        <v>9.4828494258239124E-6</v>
+      </c>
+      <c r="E45">
+        <f>SUM(D45:D52)</f>
+        <v>6.2907747314952642E-4</v>
+      </c>
+      <c r="G45">
+        <f>B45*1000</f>
+        <v>5424.6653999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>173</v>
+      </c>
+      <c r="B46">
+        <v>5.4055032000000001</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:C52" si="4">$A$42+$B$42*A46+$C$42/A46+$D$42*A46^2</f>
+        <v>5.4143183702892568</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:D52" si="5">(C46-B46)^2</f>
+        <v>7.7707227228594278E-5</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G52" si="6">B46*1000</f>
+        <v>5405.5032000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>198</v>
+      </c>
+      <c r="B47">
+        <v>5.4150600000000004</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>5.4103569394601658</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="5"/>
+        <v>2.2118778441349345E-5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>5415.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>223</v>
+      </c>
+      <c r="B48">
+        <v>5.4049899999999997</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>5.4062750356464804</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>1.651316612725908E-6</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>5404.99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>248</v>
+      </c>
+      <c r="B49">
+        <v>5.3963299999999998</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>5.4021090922104742</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="5"/>
+        <v>3.3397906777165262E-5</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>5396.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>273</v>
+      </c>
+      <c r="B50">
+        <v>5.4125500000000004</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>5.39788219696048</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>2.1514444600616452E-4</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>5412.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>293</v>
+      </c>
+      <c r="B51">
+        <v>5.402317</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>5.3944672799985236</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>6.1618104101579196E-5</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>5402.317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>303</v>
+      </c>
+      <c r="B52">
+        <v>5.3783300000000001</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>5.3927507088784195</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>2.0795684455612404E-4</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>5378.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3239,13 +3689,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>5.3060099432234891</v>
+        <v>5.3039110545443737</v>
       </c>
       <c r="B42">
-        <v>-3.3595865945306515E-4</v>
+        <v>-3.3186373837866621E-4</v>
       </c>
       <c r="C42">
-        <v>-1.0136312876580813</v>
+        <v>-0.78985000000000005</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -3271,15 +3721,15 @@
       </c>
       <c r="C45">
         <f>$A$42+$B$42*A45+$C$42/A45+$D$42*A45^2</f>
-        <v>5.2564461233330544</v>
+        <v>5.2566702700083505</v>
       </c>
       <c r="D45">
         <f>(C45-B45)^2</f>
-        <v>4.6218559815422477E-5</v>
+        <v>4.9316489522188518E-5</v>
       </c>
       <c r="E45">
         <f>SUM(D45:D52)</f>
-        <v>2.8176524841338453E-3</v>
+        <v>2.8254349307306995E-3</v>
       </c>
       <c r="G45">
         <f>B45*1000</f>
@@ -3295,11 +3745,11 @@
       </c>
       <c r="C46">
         <f t="shared" ref="C46:C52" si="4">$A$42+$B$42*A46+$C$42/A46+$D$42*A46^2</f>
-        <v>5.2420299547470215</v>
+        <v>5.2419330208684487</v>
       </c>
       <c r="D46">
         <f t="shared" ref="D46:D52" si="5">(C46-B46)^2</f>
-        <v>4.6212188742553586E-5</v>
+        <v>4.4903680679386506E-5</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46:G52" si="6">B46*1000</f>
@@ -3315,11 +3765,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
-        <v>5.2343707787141156</v>
+        <v>5.2342128929312564</v>
       </c>
       <c r="D47">
         <f t="shared" si="5"/>
-        <v>2.6308910999565518E-5</v>
+        <v>2.7953501156354803E-5</v>
       </c>
       <c r="G47">
         <f t="shared" si="6"/>
@@ -3335,11 +3785,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
-        <v>5.2265457303822354</v>
+        <v>5.2263635126348102</v>
       </c>
       <c r="D48">
         <f t="shared" si="5"/>
-        <v>1.0412711843203041E-4</v>
+        <v>1.0787911978724206E-4</v>
       </c>
       <c r="G48">
         <f t="shared" si="6"/>
@@ -3355,11 +3805,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
-        <v>5.2186049727450241</v>
+        <v>5.2184239683942071</v>
       </c>
       <c r="D49">
         <f t="shared" si="5"/>
-        <v>8.4026861986991703E-4</v>
+        <v>8.5079506886886883E-4</v>
       </c>
       <c r="G49">
         <f t="shared" si="6"/>
@@ -3375,11 +3825,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
-        <v>5.2105802940731758</v>
+        <v>5.2104190305237745</v>
       </c>
       <c r="D50">
         <f t="shared" si="5"/>
-        <v>5.7721475530256425E-4</v>
+        <v>5.6949195283963064E-4</v>
       </c>
       <c r="G50">
         <f t="shared" si="6"/>
@@ -3395,11 +3845,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
-        <v>5.2024928154324552</v>
+        <v>5.2023651571518261</v>
       </c>
       <c r="D51">
         <f t="shared" si="5"/>
-        <v>7.6805556582419275E-4</v>
+        <v>7.6099606640524665E-4</v>
       </c>
       <c r="G51">
         <f t="shared" si="6"/>
@@ -3415,11 +3865,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
-        <v>5.2008691516281607</v>
+        <v>5.2007495761390699</v>
       </c>
       <c r="D52">
         <f t="shared" si="5"/>
-        <v>4.0924676514759924E-4</v>
+        <v>4.1409905147178156E-4</v>
       </c>
       <c r="G52">
         <f t="shared" si="6"/>
